--- a/data/trans_media/IQ17B_M-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ17B_M-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,61</t>
+          <t>1,94; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,19</t>
+          <t>1,68; 2,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,55</t>
+          <t>1,89; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,53</t>
+          <t>2,38; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 2,51</t>
+          <t>1,93; 2,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,58</t>
+          <t>2,01; 2,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,42</t>
+          <t>1,87; 2,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,82</t>
+          <t>2,53; 3,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,45</t>
+          <t>2,02; 2,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,27</t>
+          <t>1,89; 2,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,37</t>
+          <t>1,98; 2,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,51</t>
+          <t>2,6; 3,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,49</t>
+          <t>2,91; 3,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,0</t>
+          <t>2,46; 2,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,38</t>
+          <t>2,77; 3,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,84</t>
+          <t>2,82; 3,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,34</t>
+          <t>2,85; 3,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,23</t>
+          <t>2,67; 3,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 3,2</t>
+          <t>2,63; 3,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,31</t>
+          <t>3,42; 4,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,34</t>
+          <t>2,97; 3,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,02</t>
+          <t>2,65; 3,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,19</t>
+          <t>2,79; 3,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 3,96</t>
+          <t>3,28; 3,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,95</t>
+          <t>3,0; 4,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,01</t>
+          <t>3,18; 3,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,55; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,56</t>
+          <t>2,63; 3,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,61</t>
+          <t>2,64; 3,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,67</t>
+          <t>2,91; 3,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,81</t>
+          <t>3,05; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,4</t>
+          <t>3,43; 4,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,66</t>
+          <t>2,96; 3,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,72</t>
+          <t>3,14; 3,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,46</t>
+          <t>2,91; 3,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 3,85</t>
+          <t>3,16; 3,82</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,18</t>
+          <t>3,38; 4,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,88</t>
+          <t>3,11; 3,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,43</t>
+          <t>2,63; 3,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,94</t>
+          <t>2,91; 3,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 3,99</t>
+          <t>3,16; 3,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,68</t>
+          <t>2,95; 3,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,59</t>
+          <t>2,73; 3,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,67</t>
+          <t>2,82; 3,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,72</t>
+          <t>3,14; 3,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,39</t>
+          <t>2,81; 3,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,62</t>
+          <t>2,97; 3,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,48</t>
+          <t>3,08; 3,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,17</t>
+          <t>2,82; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,09</t>
+          <t>2,72; 3,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,52</t>
+          <t>2,99; 3,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,34</t>
+          <t>2,95; 3,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,21</t>
+          <t>2,85; 3,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,15</t>
+          <t>2,8; 3,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 3,82</t>
+          <t>3,31; 3,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,34</t>
+          <t>3,08; 3,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,14</t>
+          <t>2,87; 3,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,07</t>
+          <t>2,8; 3,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,57</t>
+          <t>3,22; 3,59</t>
         </is>
       </c>
     </row>
